--- a/Common/Excel/Templates/template_泰国8人首页.xlsx
+++ b/Common/Excel/Templates/template_泰国8人首页.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Documents\My Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TravelAgency_V3\Common\Excel\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -350,22 +350,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:B4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="42.875" customWidth="1"/>
+    <col min="1" max="2" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="176.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" ht="176.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" ht="176.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" ht="176.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1" ht="198.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" ht="198.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" ht="198.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" ht="198.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="3.937007874015748E-2" right="0" top="0.19685039370078741" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>